--- a/ConceptMap-R5-Citation-elements-for-R4.xlsx
+++ b/ConceptMap-R5-Citation-elements-for-R4.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="358">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-09T22:05:43.5398095-06:00</t>
+    <t>2026-02-17T14:42:27.0325938-06:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -543,7 +543,7 @@
     <t>baseCitation</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Citation:citedArtifact:version:baseCitation</t>
+    <t>http://hl7.org/fhir/StructureDefinition/alternate-reference</t>
   </si>
   <si>
     <t>Citation.citedArtifact.currentState</t>
@@ -657,9 +657,6 @@
     <t>Citation.citedArtifact.part.baseCitation</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Citation:citedArtifact:part:baseCitation</t>
-  </si>
-  <si>
     <t>Citation.citedArtifact.relatesTo</t>
   </si>
   <si>
@@ -723,7 +720,7 @@
     <t>resource</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Citation:citedArtifact:relatesTo:resource</t>
+    <t>http://hl7.org/fhir/StructureDefinition/alternate-canonical</t>
   </si>
   <si>
     <t>Citation.citedArtifact.relatesTo.resourceReference</t>
@@ -732,9 +729,6 @@
     <t>resourceReference</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Citation:citedArtifact:relatesTo:resourceReference</t>
-  </si>
-  <si>
     <t>Citation.citedArtifact.publicationForm</t>
   </si>
   <si>
@@ -774,9 +768,6 @@
     <t>Citation.citedArtifact.publicationForm.publishedIn.publisher</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Citation:citedArtifact:publicationForm:publishedIn:publisher</t>
-  </si>
-  <si>
     <t>Citation.citedArtifact.publicationForm.publishedIn.publisherLocation</t>
   </si>
   <si>
@@ -951,9 +942,6 @@
     <t>artifactAssessment</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Citation:citedArtifact:classification:artifactAssessment</t>
-  </si>
-  <si>
     <t>Citation.citedArtifact.contributorship</t>
   </si>
   <si>
@@ -987,9 +975,6 @@
     <t>contributor</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Citation:citedArtifact:contributorship:entry:contributor</t>
-  </si>
-  <si>
     <t>Citation.citedArtifact.contributorship.entry.forenameInitials</t>
   </si>
   <si>
@@ -1003,9 +988,6 @@
   </si>
   <si>
     <t>affiliation</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-Citation:citedArtifact:contributorship:entry:affiliation</t>
   </si>
   <si>
     <t>Citation.citedArtifact.contributorship.entry.contributionType</t>
@@ -2279,735 +2261,735 @@
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>214</v>
+        <v>176</v>
       </c>
       <c r="E70" s="2"/>
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="B71" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="B71" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E71" s="2"/>
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B72" t="s" s="2">
         <v>132</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E72" s="2"/>
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B73" t="s" s="2">
         <v>135</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E73" s="2"/>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="B74" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="B74" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E74" s="2"/>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="B75" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="B75" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E75" s="2"/>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="B76" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="B76" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E76" s="2"/>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="B77" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="B77" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E77" s="2"/>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="B78" t="s" s="2">
         <v>234</v>
-      </c>
-      <c r="B78" t="s" s="2">
-        <v>235</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E78" s="2"/>
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="B79" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="B79" t="s" s="2">
-        <v>238</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>239</v>
+        <v>176</v>
       </c>
       <c r="E79" s="2"/>
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E80" s="2"/>
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E81" s="2"/>
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B82" t="s" s="2">
         <v>132</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E82" s="2"/>
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B83" t="s" s="2">
         <v>52</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="E83" s="2"/>
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B84" t="s" s="2">
         <v>64</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E84" s="2"/>
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B85" t="s" s="2">
         <v>76</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
-        <v>253</v>
+        <v>176</v>
       </c>
       <c r="E85" s="2"/>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E86" s="2"/>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E87" s="2"/>
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E88" s="2"/>
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E89" s="2"/>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E90" s="2"/>
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E91" s="2"/>
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="E92" s="2"/>
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E93" s="2"/>
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B94" t="s" s="2">
         <v>40</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E94" s="2"/>
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E95" s="2"/>
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="E96" s="2"/>
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E97" s="2"/>
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E98" s="2"/>
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E99" s="2"/>
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B100" t="s" s="2">
         <v>94</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E100" s="2"/>
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="E101" s="2"/>
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B102" t="s" s="2">
         <v>135</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="E102" s="2"/>
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B103" t="s" s="2">
         <v>49</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="E103" s="2"/>
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B104" t="s" s="2">
         <v>129</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E104" s="2"/>
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B105" t="s" s="2">
         <v>132</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="E105" s="2"/>
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="B106" t="s" s="2">
         <v>135</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="E106" s="2"/>
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
-        <v>312</v>
+        <v>176</v>
       </c>
       <c r="E107" s="2"/>
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="E108" s="2"/>
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="E109" s="2"/>
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="E110" s="2"/>
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
-        <v>324</v>
+        <v>176</v>
       </c>
       <c r="E111" s="2"/>
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="E112" s="2"/>
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
-        <v>330</v>
+        <v>176</v>
       </c>
       <c r="E113" s="2"/>
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="E114" s="2"/>
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="E115" s="2"/>
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="E116" s="2"/>
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="B117" t="s" s="2">
         <v>132</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="E117" s="2"/>
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="E118" s="2"/>
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="E119" s="2"/>
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="E120" s="2"/>
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="B121" t="s" s="2">
         <v>121</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="E121" s="2"/>
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="B122" t="s" s="2">
         <v>132</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="E122" s="2"/>
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="B123" t="s" s="2">
         <v>124</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="E123" s="2"/>
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="E124" s="2"/>
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="B125" t="s" s="2">
         <v>172</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="E125" s="2"/>
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="B126" t="s" s="2">
         <v>138</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="E126" s="2"/>
     </row>
